--- a/Prerna_Help.xlsx
+++ b/Prerna_Help.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Prerna\PRERNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9418F8B-FC9D-4CBE-B37D-BB0DF8D4BA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BD298-1A55-4FFC-A81A-3CABD8EF6908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B74EEA7-E555-4701-8772-AC27CF9E96B8}"/>
   </bookViews>
@@ -577,10 +577,10 @@
   <dimension ref="A1:Q303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,7 +2656,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A304">
     <sortCondition ref="A2:A304"/>
   </sortState>
-  <conditionalFormatting sqref="F1:H1 C11:E11 C13:E304 D12:E12 C1:E7 C9:E9 D8:E8 H22:H23 H25:H30">
+  <conditionalFormatting sqref="F1:H1 C1:E7 D8:E8 C9:E9 C11:E11 D12:E12 C13:E304 H22:H23 H25:H30">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="2025">
       <formula>NOT(ISERROR(SEARCH("2025",C1)))</formula>
     </cfRule>
